--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1681.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1681.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.764560062159277</v>
+        <v>0.9993789792060852</v>
       </c>
       <c r="B1">
-        <v>2.784567925481996</v>
+        <v>4.112075805664062</v>
       </c>
       <c r="C1">
-        <v>2.059810800258405</v>
+        <v>2.346004009246826</v>
       </c>
       <c r="D1">
-        <v>1.920954140810657</v>
+        <v>1.71368396282196</v>
       </c>
       <c r="E1">
-        <v>1.780631367477553</v>
+        <v>1.345895648002625</v>
       </c>
     </row>
   </sheetData>
